--- a/Data/topic_label_example.xlsx
+++ b/Data/topic_label_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasimonetti/Documents/SLR-toolkit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasimonetti/SLR-ML-toolkit/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7B5E8D-C1EB-9E4C-B365-FF3240E03375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DC9C97-95E0-1F4A-A8B0-436C1EAE1633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10520" yWindow="2220" windowWidth="18280" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>topic</t>
   </si>
@@ -43,16 +43,46 @@
     <t>label</t>
   </si>
   <si>
-    <t xml:space="preserve">quantiative methodological approaches </t>
+    <t>topic_1</t>
   </si>
   <si>
-    <t xml:space="preserve">qualitative methodological approaches </t>
+    <t>topic_6</t>
   </si>
   <si>
-    <t>small business</t>
+    <t>topic_7</t>
   </si>
   <si>
-    <t>supply chain</t>
+    <t>topic_8</t>
+  </si>
+  <si>
+    <t>topic_9</t>
+  </si>
+  <si>
+    <t>Label_1</t>
+  </si>
+  <si>
+    <t>Label_2</t>
+  </si>
+  <si>
+    <t>Label_3</t>
+  </si>
+  <si>
+    <t>Label_4</t>
+  </si>
+  <si>
+    <t>Label_5</t>
+  </si>
+  <si>
+    <t>Label_6</t>
+  </si>
+  <si>
+    <t>Label_7</t>
+  </si>
+  <si>
+    <t>Label_8</t>
+  </si>
+  <si>
+    <t>Label_9</t>
   </si>
 </sst>
 </file>
@@ -436,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G398"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -456,55 +486,75 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
